--- a/biology/Botanique/Forêt_de_Valachie/Forêt_de_Valachie.xlsx
+++ b/biology/Botanique/Forêt_de_Valachie/Forêt_de_Valachie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Valachie</t>
+          <t>Forêt_de_Valachie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nos jours, la forêt de Valachie ou Forêt valaque (Codrii Vlăsiei) est une petite forêt résiduelle de Valachie, au nord-ouest de Bucarest, mais au Moyen Âge elle couvrait tous les piémonts des Alpes de Transylvanie, s'étendant des Monts Făgăraș à la plaine du Danube. À l'est de celle-ci s'étendait l'extrémité occidentale de la steppe pontique.
-Au Moyen Âge, la déforestation de la forêt valaque commence par la partie occidentale de la Valachie, alors appelée « banat de Severin », « petite-Valachie » (Kleine-Walachei) en allemand et Olténie (Oltenia) en roumain, duché vassal à la fois du royaume de Hongrie et du tsarat de Vidin dont il a conservé les armoiries : un lion rampant d'or sur émail de gueules[1]. Réservée aux nobles, la chasse à l'aurochs, au bison d'Europe et aux bièvres (pour la fourrure) a fait disparaître ces espèces[2] mais les deux dernières ont été ponctuellement réintroduites au XXIe siècle.
+Au Moyen Âge, la déforestation de la forêt valaque commence par la partie occidentale de la Valachie, alors appelée « banat de Severin », « petite-Valachie » (Kleine-Walachei) en allemand et Olténie (Oltenia) en roumain, duché vassal à la fois du royaume de Hongrie et du tsarat de Vidin dont il a conservé les armoiries : un lion rampant d'or sur émail de gueules. Réservée aux nobles, la chasse à l'aurochs, au bison d'Europe et aux bièvres (pour la fourrure) a fait disparaître ces espèces mais les deux dernières ont été ponctuellement réintroduites au XXIe siècle.
 </t>
         </is>
       </c>
